--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21075" windowHeight="10800"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="21072" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Global Mitigation of Non-CO2 Greenhouse Gases: 2010 – 2030</t>
   </si>
@@ -55,31 +55,10 @@
     <t>In this case, chemicals, waste management, and other industries are sums of various EPA MACs.</t>
   </si>
   <si>
-    <t>2. We assign policies to each price tier for each industry.  Rationale for why each policy was assigned to</t>
-  </si>
-  <si>
     <t>PERAC Mass CO2e Avoidable by Marginal Cost</t>
   </si>
   <si>
-    <t>We also make an Agriculture MAC, for use in a potential future extension of the model.</t>
-  </si>
-  <si>
-    <t>each of its tiers is provided in the relevant spreadsheet.  We also convert the spreadsheets to report the</t>
-  </si>
-  <si>
-    <t>incremental amount of reductions achievable at each tier, rather than the cumulative total from all</t>
-  </si>
-  <si>
-    <t>prior tiers.</t>
-  </si>
-  <si>
-    <t>3A. Potential Percentage Reductions in End Year Process Emissions by Policy</t>
-  </si>
-  <si>
     <t>We total the reductions achievable by industry and find the fractions of those totals that are assigned</t>
-  </si>
-  <si>
-    <t>to particular policies in our modified MACs from step 2.  This spreadsheet outputs PERAC-PPReEYPEbP</t>
   </si>
   <si>
     <t>and is designed to be easily changed to output data for any country or region the EPA included in their</t>
@@ -203,7 +182,61 @@
     <t>See the Step 2 spreadsheet for specific page, table, row, and column references for each policy assignment.</t>
   </si>
   <si>
-    <t>PERAC Potential Percentage Reductions in End Year Process Emissions by Policy</t>
+    <t>2. Except for agriculture, we assign policies to each price tier for each industry.  Rationale for why each policy was</t>
+  </si>
+  <si>
+    <t>use each component of agricultural process emissions as the basis for a single policy lever in the model.</t>
+  </si>
+  <si>
+    <t>We also convert the spreadsheets to report the incremental amount of reductions achievable at each tier, rather</t>
+  </si>
+  <si>
+    <t>than the cumulative total from all prior tiers.</t>
+  </si>
+  <si>
+    <t>PERAC Potential Reductions in End Year Process Emissions by Policy</t>
+  </si>
+  <si>
+    <t>3A. Potential Reductions in End Year Process Emissions by Policy</t>
+  </si>
+  <si>
+    <t>assigned to each of its tiers is provided in the relevant spreadsheet.  For agriculture, in a separate file, we</t>
+  </si>
+  <si>
+    <t>to particular policies in our modified MACs from step 2.  This spreadsheet outputs PERAC-PReEYPEbP</t>
+  </si>
+  <si>
+    <t>Since cement is not available in the EPA source, in a separate file, we output the potential percentage</t>
+  </si>
+  <si>
+    <t>reduction, which is multiplied in Vensim by the BAU cement process emissions to find the potential reduction.</t>
+  </si>
+  <si>
+    <t>PERAC Potential Perc Reduction in End Year Proc Emis from Cement</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>This source was published in 2013 and contains cost tables for 2010, 2020, and 2030.  If it explicitly says the currency year</t>
+  </si>
+  <si>
+    <t>for the figures in the tables, I did not notice.  2010 would be my best guess.</t>
+  </si>
+  <si>
+    <t>However, since the spreadsheets for this variable are set up to be able to be switched between different countries</t>
+  </si>
+  <si>
+    <t>and regions, and any adjustment for inflation would be different by region (because other regions didn't actually pay in</t>
+  </si>
+  <si>
+    <t>U.S. dollars), an adjustment would break the internationalization of this variable.</t>
+  </si>
+  <si>
+    <t>Accordingly, we do not apply a currency year adjustment here.  If in fact the original source's currency year is 2010, this</t>
+  </si>
+  <si>
+    <t>would result in costs being roughly 5% too low in the U.S. dataset for this variable.</t>
   </si>
 </sst>
 </file>
@@ -591,365 +624,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="100.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>33</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
-    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B30" r:id="rId4"/>
+    <hyperlink ref="B37" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>

--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="21072" windowHeight="10800"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="21075" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Global Mitigation of Non-CO2 Greenhouse Gases: 2010 – 2030</t>
   </si>
@@ -237,6 +237,60 @@
   </si>
   <si>
     <t>would result in costs being roughly 5% too low in the U.S. dataset for this variable.</t>
+  </si>
+  <si>
+    <t>Policy Abbreviations</t>
+  </si>
+  <si>
+    <t>In some of the Excel files in this folder, the following abbreviations are used to denote specific policies.</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>methane recovery (e.g. capture)</t>
+  </si>
+  <si>
+    <t>methane destruction (e.g. flaring)</t>
+  </si>
+  <si>
+    <t>worker training</t>
+  </si>
+  <si>
+    <t>cement clinker substitition</t>
+  </si>
+  <si>
+    <t>control or prevent non-methane, non-CO2 process emissions (in practice, this is essentially F-gases)</t>
+  </si>
+  <si>
+    <t>cropland management</t>
+  </si>
+  <si>
+    <t>rice cultivation measures</t>
+  </si>
+  <si>
+    <t>livestock measures</t>
   </si>
 </sst>
 </file>
@@ -624,37 +678,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -665,33 +719,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -699,32 +753,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
@@ -732,35 +786,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
@@ -768,32 +822,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
@@ -801,233 +855,307 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>73</v>
       </c>
     </row>

--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Global Mitigation of Non-CO2 Greenhouse Gases: 2010 – 2030</t>
   </si>
@@ -58,18 +58,6 @@
     <t>PERAC Mass CO2e Avoidable by Marginal Cost</t>
   </si>
   <si>
-    <t>We total the reductions achievable by industry and find the fractions of those totals that are assigned</t>
-  </si>
-  <si>
-    <t>and is designed to be easily changed to output data for any country or region the EPA included in their</t>
-  </si>
-  <si>
-    <t>MACs (to assist in adaptation of the model to a different country than the United States).</t>
-  </si>
-  <si>
-    <t>3B. Mass CO2e Avoidable by Marginal Cost</t>
-  </si>
-  <si>
     <t>We create separate MACs by policy by pulling from only those rows matching a given policy, for a given</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>are inside folders called "Step1," "Step2," and so forth, corresponding to the steps detailed here:</t>
   </si>
   <si>
-    <t>Steps 3A and 3B each rely on the results of step 2, but they do not rely on each others' results.</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
   </si>
   <si>
     <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3A</t>
   </si>
   <si>
     <t>Cement: Cost and CO2 Reduction for Clinker Substitution</t>
@@ -176,9 +158,6 @@
     <t>Page 13, Table 3, Row "Decarbonated Feedstocks"</t>
   </si>
   <si>
-    <t>Step 3B</t>
-  </si>
-  <si>
     <t>See the Step 2 spreadsheet for specific page, table, row, and column references for each policy assignment.</t>
   </si>
   <si>
@@ -197,18 +176,9 @@
     <t>PERAC Potential Reductions in End Year Process Emissions by Policy</t>
   </si>
   <si>
-    <t>3A. Potential Reductions in End Year Process Emissions by Policy</t>
-  </si>
-  <si>
     <t>assigned to each of its tiers is provided in the relevant spreadsheet.  For agriculture, in a separate file, we</t>
   </si>
   <si>
-    <t>to particular policies in our modified MACs from step 2.  This spreadsheet outputs PERAC-PReEYPEbP</t>
-  </si>
-  <si>
-    <t>Since cement is not available in the EPA source, in a separate file, we output the potential percentage</t>
-  </si>
-  <si>
     <t>reduction, which is multiplied in Vensim by the BAU cement process emissions to find the potential reduction.</t>
   </si>
   <si>
@@ -291,6 +261,30 @@
   </si>
   <si>
     <t>livestock measures</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>3. Since cement is not available in the EPA source, in a separate file, we output the potential percentage</t>
+  </si>
+  <si>
+    <t>4. Mass CO2e Avoidable by Marginal Cost</t>
+  </si>
+  <si>
+    <t>Vensim is both buggy and slow when trying to total the process emissions avoidable in the end year when</t>
+  </si>
+  <si>
+    <t>done in earlier years (i.e. using GET DATA AT TIME or TIME SHIFT on the MCAbMC files), so we perform the</t>
+  </si>
+  <si>
+    <t>Potential Reductions in End Year Process Emissions by Policy</t>
+  </si>
+  <si>
+    <t>operation in Excel in Step 4 and make the results available to Vensim via a separate input data file.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,12 +684,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,24 +699,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +726,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -742,20 +736,20 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,25 +764,25 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -798,17 +792,17 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -816,15 +810,15 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -834,53 +828,53 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -927,17 +921,17 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,211 +946,201 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>60</v>
+      <c r="B63" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>64</v>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>19</v>
+      <c r="B73" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>26</v>
+      <c r="A78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
         <v>76</v>
-      </c>
-      <c r="B82" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
         <v>77</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
         <v>78</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
         <v>79</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
         <v>80</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>91</v>
+      <c r="A89" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>66</v>
+      <c r="A91" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Global Mitigation of Non-CO2 Greenhouse Gases: 2010 – 2030</t>
   </si>
@@ -173,18 +173,12 @@
     <t>than the cumulative total from all prior tiers.</t>
   </si>
   <si>
-    <t>PERAC Potential Reductions in End Year Process Emissions by Policy</t>
-  </si>
-  <si>
     <t>assigned to each of its tiers is provided in the relevant spreadsheet.  For agriculture, in a separate file, we</t>
   </si>
   <si>
     <t>reduction, which is multiplied in Vensim by the BAU cement process emissions to find the potential reduction.</t>
   </si>
   <si>
-    <t>PERAC Potential Perc Reduction in End Year Proc Emis from Cement</t>
-  </si>
-  <si>
     <t>Currency Year</t>
   </si>
   <si>
@@ -275,16 +269,7 @@
     <t>4. Mass CO2e Avoidable by Marginal Cost</t>
   </si>
   <si>
-    <t>Vensim is both buggy and slow when trying to total the process emissions avoidable in the end year when</t>
-  </si>
-  <si>
-    <t>done in earlier years (i.e. using GET DATA AT TIME or TIME SHIFT on the MCAbMC files), so we perform the</t>
-  </si>
-  <si>
-    <t>Potential Reductions in End Year Process Emissions by Policy</t>
-  </si>
-  <si>
-    <t>operation in Excel in Step 4 and make the results available to Vensim via a separate input data file.</t>
+    <t>PERAC Potential Perc Reduction in Proc Emis from Cement</t>
   </si>
 </sst>
 </file>
@@ -672,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,474 +667,449 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>39</v>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>2013</v>
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>36</v>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="C32" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>85</v>
+      <c r="B66" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>88</v>
+      <c r="A73" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>86</v>
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>87</v>
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>89</v>
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>64</v>
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" t="s">
-        <v>77</v>
+      <c r="A83" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>56</v>
+      <c r="A89" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3"/>
-    <hyperlink ref="B30" r:id="rId4"/>
-    <hyperlink ref="B37" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B36" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>

--- a/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
+++ b/InputData/indst/PERAC/Process Emissions Reductions and Costs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21075" windowHeight="10800"/>
+    <workbookView xWindow="1380" yWindow="1695" windowWidth="21075" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -121,18 +121,6 @@
     <t>Cement: Achievable Percentage of Clinker in End Year</t>
   </si>
   <si>
-    <t>European Cement Association</t>
-  </si>
-  <si>
-    <t>The Role of Cement in the 2050 Low Carbon Economy</t>
-  </si>
-  <si>
-    <t>http://lowcarboneconomy.cembureau.eu/index.php?page=clinker-substitution</t>
-  </si>
-  <si>
-    <t>Section "Potential Savings", Paragraph 2 (we use the potential clinker percentage reachable by Europe as the bound for all regions)</t>
-  </si>
-  <si>
     <t>Steps Used</t>
   </si>
   <si>
@@ -270,6 +258,18 @@
   </si>
   <si>
     <t>PERAC Potential Perc Reduction in Proc Emis from Cement</t>
+  </si>
+  <si>
+    <t>International Energy Agency and Cement Sustainability Initiative</t>
+  </si>
+  <si>
+    <t>Technology Roadmap: Low-Carbon Transition in the Cement Industry</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/publications/freepublications/publication/TechnologyRoadmapLowCarbonTransitionintheCementIndustry.pdf</t>
+  </si>
+  <si>
+    <t>p 41, last paragraph</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -793,45 +793,45 @@
         <v>34</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,17 +841,17 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,42 +926,42 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,116 +991,116 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1108,8 +1108,8 @@
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B15" r:id="rId2"/>
     <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
-    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B36" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
